--- a/ON/bt/strategyON_20230716.xlsx
+++ b/ON/bt/strategyON_20230716.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>49.1%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -628,12 +628,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>68.3%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67.9%</t>
+          <t>67.6%</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16.2%</t>
+          <t>16.3%</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33.8%</t>
+          <t>33.7%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>37.8%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>54.4%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-20.5%</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>9.4%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110.6%</t>
+          <t>110.7%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>106.3%</t>
+          <t>106.4%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>19.7%</t>
+          <t>20.1%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>54.6%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>70.1%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>137.3%</t>
+          <t>137.4%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17.2%</t>
+          <t>17.6%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1659"/>
+  <dimension ref="A1:G1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39677,7 +39677,7 @@
         <v>45121</v>
       </c>
       <c r="B1659" t="n">
-        <v>2.91427964540041</v>
+        <v>2.91420780812392</v>
       </c>
       <c r="C1659" t="n">
         <v>3.016801062026903</v>
@@ -39693,6 +39693,29 @@
       </c>
       <c r="G1659" t="n">
         <v>4.283007245336328</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>2.911104770778536</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>3.017931700066929</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>1.518623445113762</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>3.625024653798687</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>2.114649790849517</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>4.28672157457664</v>
       </c>
     </row>
   </sheetData>
